--- a/Org/Semester 3/Sprint_4.xlsx
+++ b/Org/Semester 3/Sprint_4.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14820" windowHeight="6450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14820" windowHeight="6456"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$I$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$I$20</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -122,13 +122,25 @@
     <t>Summe</t>
   </si>
   <si>
-    <t xml:space="preserve">Hotspot Quiz(Struktur antippen) implementieren: Als Lernender möchte ich bestimmte Herzsegmente antippen, um Fragen zu beantworten, damit ich mein Wissen an der Anatomie praktisch überprüfe. Akzeptanzkriterien: Herzsegmente befinden sich in der Quiz Scene, Fragen zu Segmenten werden gestellt, Segmente können ausgewählt werden, Auswahl wird als richtig/falsch gewertet, </t>
-  </si>
-  <si>
     <t>Lern/Trainingsmodus implementieren: Als Lernender möchte ich einen Trainingsmodus nutzen können, bei dem falsche Antworten erklärt werden, damit ich den Stoff besser verstehe. Als Lernender möchte ich Fragen unbegrenzt wiederholen können, damit ich ohne Druck üben kann. Akzeptanzkriterien: zufällige Fragen werden aus Fragenpool gestellt, bei richtiger Antwort kommt nächste Frage, bei falscher Antwort, wird Frage widerholt</t>
   </si>
   <si>
     <t>Aufsplitten der Scene: Als Lernender möchte ich das Herz (für Innenansicht und Labels) unabhängig vom Herz (für 2D Ansicht) betrachten können, damit ich die Funktionalitäten übersichtlich zur Verfügung habe. Akzeptanzkriterium: es existieren 2 Scenes, die bestehenden Funktionen (Zoom, Rotation, Anzeigen von Labels, Innenansicht, 2D Schnitte) bleiben bestehen</t>
+  </si>
+  <si>
+    <t>Hotspot Quiz(Struktur antippen) implementieren: Als Lernender möchte ich bestimmte Herzsegmente antippen, um Fragen zu beantworten, damit ich mein Wissen an der Anatomie praktisch überprüfe. Akzeptanzkriterien: Herzsegmente befinden sich in der Quiz Scene, Fragen zu Segmenten werden gestellt, Segmente können ausgewählt werden und Auswahl wird als richtig/falsch gewertet</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Punktesystem einführen: Als Lernender möchte ich Punkte für richtige Antworten erhalten, damit ich meine Fortschritte messen kann. Als Lernender möchte ich eine Zeitmessung für das Absolvieren des Quizzes sehen, damit ich sehe, wie gefestigt mein gesammeltes Wissen ist. Akzeptanzkriterien: Im Quizmodus werden für korrekt beantwortete Fragen Punkte gesammelt und ein Timer stoppt die Zeit</t>
+  </si>
+  <si>
+    <t>Dieses Item wurde ursprünglich nicht für diesen Sprint geplant. Da es thematisch eng mit dem Lern/Trainingsmodus verknüpft ist, wurde die Implementierung vorgezogen.</t>
+  </si>
+  <si>
+    <t>Dieses Item wurde nicht vollständig implementiert. Folgendes Akzeptanzkriterium wurde nicht erreicht: Segmente können ausgewählt werden und Auswahl wird als richtig/falsch gewertet. Learning für die nächsten Sprints: Zeitaufwendige Items in kleiner unterteilen, damit sie unabhängig voneinander implementiert werden können</t>
   </si>
 </sst>
 </file>
@@ -452,8 +464,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -847,23 +861,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="2"/>
-    <col min="8" max="8" width="34.5703125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="65.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.44140625" style="2"/>
+    <col min="8" max="8" width="34.5546875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -876,7 +890,7 @@
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -887,7 +901,7 @@
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
     </row>
-    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -898,7 +912,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>1</v>
       </c>
@@ -911,20 +925,20 @@
       <c r="F4" s="31"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="33">
-        <v>45965.8125</v>
+        <v>45994.8125</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
@@ -937,7 +951,7 @@
       <c r="F6" s="34"/>
       <c r="G6" s="35"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
@@ -950,7 +964,7 @@
       <c r="F7" s="36"/>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
@@ -963,7 +977,7 @@
       <c r="F8" s="27"/>
       <c r="G8" s="28"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
@@ -976,7 +990,7 @@
       <c r="F9" s="27"/>
       <c r="G9" s="28"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
@@ -989,7 +1003,7 @@
       <c r="F10" s="27"/>
       <c r="G10" s="28"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>8</v>
       </c>
@@ -1002,7 +1016,7 @@
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
         <v>15</v>
       </c>
@@ -1015,7 +1029,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>9</v>
       </c>
@@ -1027,7 +1041,7 @@
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1053,67 +1067,93 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>1</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="14">
         <v>34</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10">
+        <v>20</v>
+      </c>
       <c r="E16" s="11"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="G16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>2</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="10">
         <v>16</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10">
+        <v>13</v>
+      </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>3</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="10">
         <v>6</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10">
+        <v>6</v>
+      </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+    <row r="19" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>4</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
+        <v>7</v>
+      </c>
       <c r="E19" s="11"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="2">
@@ -1122,7 +1162,7 @@
       </c>
       <c r="D20" s="2">
         <f>SUM(D15:D19)</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E20" s="4">
         <f>SUM(E16:E19)</f>
@@ -1136,13 +1176,13 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
@@ -1170,7 +1210,7 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="C11:G11"/>
   </mergeCells>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>